--- a/Not OOP/Расчётная по ТВиМС/Дискретные величины (X) (Мое).xlsx
+++ b/Not OOP/Расчётная по ТВиМС/Дискретные величины (X) (Мое).xlsx
@@ -463,12 +463,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,12 +505,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,15 +514,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -717,11 +717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="210037760"/>
-        <c:axId val="210265600"/>
+        <c:axId val="262378240"/>
+        <c:axId val="284337280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210037760"/>
+        <c:axId val="262378240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,7 +764,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210265600"/>
+        <c:crossAx val="284337280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -772,7 +772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210265600"/>
+        <c:axId val="284337280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +823,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210037760"/>
+        <c:crossAx val="262378240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1034,11 +1034,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="210289792"/>
-        <c:axId val="210291712"/>
+        <c:axId val="284369664"/>
+        <c:axId val="284371584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210289792"/>
+        <c:axId val="284369664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1081,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210291712"/>
+        <c:crossAx val="284371584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1089,7 +1089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210291712"/>
+        <c:axId val="284371584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1140,7 +1140,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210289792"/>
+        <c:crossAx val="284369664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1794,11 +1794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="287155712"/>
-        <c:axId val="287157248"/>
+        <c:axId val="284473600"/>
+        <c:axId val="284483968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="287155712"/>
+        <c:axId val="284473600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -1856,13 +1856,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287157248"/>
+        <c:crossAx val="284483968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="287157248"/>
+        <c:axId val="284483968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1921,7 +1921,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287155712"/>
+        <c:crossAx val="284473600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2601,11 +2601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="285754880"/>
-        <c:axId val="285756800"/>
+        <c:axId val="284814720"/>
+        <c:axId val="284968448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="285754880"/>
+        <c:axId val="284814720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -2663,13 +2663,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285756800"/>
+        <c:crossAx val="284968448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285756800"/>
+        <c:axId val="284968448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -2728,7 +2728,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285754880"/>
+        <c:crossAx val="284814720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -8801,7 +8801,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8811,8 +8811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DP105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:DP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8828,582 +8828,582 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34">
+      <c r="B1" s="20">
         <v>8</v>
       </c>
-      <c r="C1" s="34">
+      <c r="C1" s="20">
         <v>7</v>
       </c>
-      <c r="D1" s="34">
+      <c r="D1" s="20">
         <v>1</v>
       </c>
-      <c r="E1" s="34">
+      <c r="E1" s="20">
         <v>2</v>
       </c>
-      <c r="F1" s="34">
+      <c r="F1" s="20">
         <v>1</v>
       </c>
-      <c r="G1" s="34">
+      <c r="G1" s="20">
         <v>3</v>
       </c>
-      <c r="H1" s="34">
+      <c r="H1" s="20">
         <v>4</v>
       </c>
-      <c r="I1" s="34">
+      <c r="I1" s="20">
         <v>3</v>
       </c>
-      <c r="J1" s="34">
+      <c r="J1" s="20">
         <v>1</v>
       </c>
-      <c r="K1" s="34">
+      <c r="K1" s="20">
         <v>6</v>
       </c>
-      <c r="L1" s="34">
+      <c r="L1" s="20">
         <v>1</v>
       </c>
-      <c r="M1" s="34">
+      <c r="M1" s="20">
         <v>7</v>
       </c>
-      <c r="N1" s="34">
+      <c r="N1" s="20">
         <v>2</v>
       </c>
-      <c r="O1" s="34">
+      <c r="O1" s="20">
         <v>4</v>
       </c>
-      <c r="P1" s="34">
+      <c r="P1" s="20">
         <v>4</v>
       </c>
-      <c r="Q1" s="34">
+      <c r="Q1" s="20">
         <v>3</v>
       </c>
-      <c r="R1" s="34">
+      <c r="R1" s="20">
         <v>4</v>
       </c>
-      <c r="S1" s="34">
+      <c r="S1" s="20">
         <v>2</v>
       </c>
-      <c r="T1" s="34">
+      <c r="T1" s="20">
         <v>1</v>
       </c>
-      <c r="U1" s="34">
+      <c r="U1" s="20">
         <v>3</v>
       </c>
-      <c r="V1" s="34">
+      <c r="V1" s="20">
         <v>4</v>
       </c>
-      <c r="W1" s="34">
+      <c r="W1" s="20">
         <v>5</v>
       </c>
-      <c r="X1" s="34">
+      <c r="X1" s="20">
         <v>3</v>
       </c>
-      <c r="Y1" s="34">
+      <c r="Y1" s="20">
         <v>3</v>
       </c>
-      <c r="Z1" s="34">
+      <c r="Z1" s="20">
         <v>3</v>
       </c>
-      <c r="AA1" s="34">
+      <c r="AA1" s="20">
         <v>5</v>
       </c>
-      <c r="AB1" s="34">
+      <c r="AB1" s="20">
         <v>3</v>
       </c>
-      <c r="AC1" s="34">
+      <c r="AC1" s="20">
         <v>3</v>
       </c>
-      <c r="AD1" s="34">
+      <c r="AD1" s="20">
         <v>5</v>
       </c>
-      <c r="AE1" s="34">
+      <c r="AE1" s="20">
         <v>4</v>
       </c>
-      <c r="AF1" s="34">
+      <c r="AF1" s="20">
         <v>2</v>
       </c>
-      <c r="AG1" s="34">
+      <c r="AG1" s="20">
         <v>7</v>
       </c>
-      <c r="AH1" s="34">
+      <c r="AH1" s="20">
         <v>2</v>
       </c>
-      <c r="AI1" s="34">
+      <c r="AI1" s="20">
         <v>4</v>
       </c>
-      <c r="AJ1" s="34">
+      <c r="AJ1" s="20">
         <v>1</v>
       </c>
-      <c r="AK1" s="34">
+      <c r="AK1" s="20">
         <v>2</v>
       </c>
-      <c r="AL1" s="34">
+      <c r="AL1" s="20">
         <v>3</v>
       </c>
-      <c r="AM1" s="34">
+      <c r="AM1" s="20">
         <v>4</v>
       </c>
-      <c r="AN1" s="34">
+      <c r="AN1" s="20">
         <v>6</v>
       </c>
-      <c r="AO1" s="34">
+      <c r="AO1" s="20">
         <v>3</v>
       </c>
-      <c r="AP1" s="34">
+      <c r="AP1" s="20">
         <v>6</v>
       </c>
-      <c r="AQ1" s="34">
+      <c r="AQ1" s="20">
         <v>1</v>
       </c>
-      <c r="AR1" s="34">
+      <c r="AR1" s="20">
         <v>7</v>
       </c>
-      <c r="AS1" s="34">
+      <c r="AS1" s="20">
         <v>2</v>
       </c>
-      <c r="AT1" s="34">
+      <c r="AT1" s="20">
         <v>1</v>
       </c>
-      <c r="AU1" s="34">
+      <c r="AU1" s="20">
         <v>3</v>
       </c>
-      <c r="AV1" s="34">
+      <c r="AV1" s="20">
         <v>7</v>
       </c>
-      <c r="AW1" s="34">
+      <c r="AW1" s="20">
         <v>3</v>
       </c>
-      <c r="AX1" s="34">
+      <c r="AX1" s="20">
         <v>3</v>
       </c>
-      <c r="AY1" s="34">
+      <c r="AY1" s="20">
         <v>4</v>
       </c>
-      <c r="AZ1" s="34">
+      <c r="AZ1" s="20">
         <v>5</v>
       </c>
-      <c r="BA1" s="34">
+      <c r="BA1" s="20">
         <v>4</v>
       </c>
-      <c r="BB1" s="34">
+      <c r="BB1" s="20">
         <v>5</v>
       </c>
-      <c r="BC1" s="34">
+      <c r="BC1" s="20">
         <v>3</v>
       </c>
-      <c r="BD1" s="34">
+      <c r="BD1" s="20">
         <v>3</v>
       </c>
-      <c r="BE1" s="34">
+      <c r="BE1" s="20">
         <v>3</v>
       </c>
-      <c r="BF1" s="34">
+      <c r="BF1" s="20">
         <v>6</v>
       </c>
-      <c r="BG1" s="34">
+      <c r="BG1" s="20">
         <v>3</v>
       </c>
-      <c r="BH1" s="34">
+      <c r="BH1" s="20">
         <v>3</v>
       </c>
-      <c r="BI1" s="34">
+      <c r="BI1" s="20">
         <v>5</v>
       </c>
-      <c r="BJ1" s="34">
+      <c r="BJ1" s="20">
         <v>7</v>
       </c>
-      <c r="BK1" s="34">
+      <c r="BK1" s="20">
         <v>8</v>
       </c>
-      <c r="BL1" s="34">
+      <c r="BL1" s="20">
         <v>7</v>
       </c>
-      <c r="BM1" s="34">
+      <c r="BM1" s="20">
         <v>8</v>
       </c>
-      <c r="BN1" s="34">
+      <c r="BN1" s="20">
         <v>8</v>
       </c>
-      <c r="BO1" s="34">
+      <c r="BO1" s="20">
         <v>1</v>
       </c>
-      <c r="BP1" s="34">
+      <c r="BP1" s="20">
         <v>7</v>
       </c>
-      <c r="BQ1" s="34">
+      <c r="BQ1" s="20">
         <v>4</v>
       </c>
-      <c r="BR1" s="34">
+      <c r="BR1" s="20">
         <v>6</v>
       </c>
-      <c r="BS1" s="34">
+      <c r="BS1" s="20">
         <v>5</v>
       </c>
-      <c r="BT1" s="34">
+      <c r="BT1" s="20">
         <v>6</v>
       </c>
-      <c r="BU1" s="34">
+      <c r="BU1" s="20">
         <v>7</v>
       </c>
-      <c r="BV1" s="34">
+      <c r="BV1" s="20">
         <v>6</v>
       </c>
-      <c r="BW1" s="34">
+      <c r="BW1" s="20">
         <v>6</v>
       </c>
-      <c r="BX1" s="34">
+      <c r="BX1" s="20">
         <v>6</v>
       </c>
-      <c r="BY1" s="34">
+      <c r="BY1" s="20">
         <v>7</v>
       </c>
-      <c r="BZ1" s="34">
+      <c r="BZ1" s="20">
         <v>5</v>
       </c>
-      <c r="CA1" s="34">
+      <c r="CA1" s="20">
         <v>5</v>
       </c>
-      <c r="CB1" s="34">
+      <c r="CB1" s="20">
         <v>3</v>
       </c>
-      <c r="CC1" s="34">
+      <c r="CC1" s="20">
         <v>1</v>
       </c>
-      <c r="CD1" s="34">
+      <c r="CD1" s="20">
         <v>1</v>
       </c>
-      <c r="CE1" s="34">
+      <c r="CE1" s="20">
         <v>1</v>
       </c>
-      <c r="CF1" s="34">
+      <c r="CF1" s="20">
         <v>8</v>
       </c>
-      <c r="CG1" s="34">
+      <c r="CG1" s="20">
         <v>1</v>
       </c>
-      <c r="CH1" s="34">
+      <c r="CH1" s="20">
         <v>7</v>
       </c>
-      <c r="CI1" s="34">
+      <c r="CI1" s="20">
         <v>7</v>
       </c>
-      <c r="CJ1" s="34">
+      <c r="CJ1" s="20">
         <v>6</v>
       </c>
-      <c r="CK1" s="34">
+      <c r="CK1" s="20">
         <v>6</v>
       </c>
-      <c r="CL1" s="34">
+      <c r="CL1" s="20">
         <v>8</v>
       </c>
-      <c r="CM1" s="34">
+      <c r="CM1" s="20">
         <v>5</v>
       </c>
-      <c r="CN1" s="34">
+      <c r="CN1" s="20">
         <v>7</v>
       </c>
-      <c r="CO1" s="34">
+      <c r="CO1" s="20">
         <v>8</v>
       </c>
-      <c r="CP1" s="34">
+      <c r="CP1" s="20">
         <v>7</v>
       </c>
-      <c r="CQ1" s="34">
+      <c r="CQ1" s="20">
         <v>8</v>
       </c>
-      <c r="CR1" s="34">
+      <c r="CR1" s="20">
         <v>8</v>
       </c>
-      <c r="CS1" s="34">
+      <c r="CS1" s="20">
         <v>1</v>
       </c>
-      <c r="CT1" s="34">
+      <c r="CT1" s="20">
         <v>3</v>
       </c>
-      <c r="CU1" s="34">
+      <c r="CU1" s="20">
         <v>4</v>
       </c>
-      <c r="CV1" s="34">
+      <c r="CV1" s="20">
         <v>6</v>
       </c>
-      <c r="CW1" s="34">
+      <c r="CW1" s="20">
         <v>5</v>
       </c>
-      <c r="CX1" s="34">
+      <c r="CX1" s="20">
         <v>6</v>
       </c>
-      <c r="CY1" s="34">
+      <c r="CY1" s="20">
         <v>7</v>
       </c>
-      <c r="CZ1" s="34">
+      <c r="CZ1" s="20">
         <v>6</v>
       </c>
-      <c r="DA1" s="34">
+      <c r="DA1" s="20">
         <v>6</v>
       </c>
-      <c r="DB1" s="34">
+      <c r="DB1" s="20">
         <v>6</v>
       </c>
-      <c r="DC1" s="34">
+      <c r="DC1" s="20">
         <v>7</v>
       </c>
-      <c r="DD1" s="34">
+      <c r="DD1" s="20">
         <v>5</v>
       </c>
-      <c r="DE1" s="34">
+      <c r="DE1" s="20">
         <v>5</v>
       </c>
-      <c r="DF1" s="34">
+      <c r="DF1" s="20">
         <v>3</v>
       </c>
-      <c r="DG1" s="34">
+      <c r="DG1" s="20">
         <v>7</v>
       </c>
-      <c r="DH1" s="34">
+      <c r="DH1" s="20">
         <v>1</v>
       </c>
-      <c r="DI1" s="34">
+      <c r="DI1" s="20">
         <v>7</v>
       </c>
-      <c r="DJ1" s="34">
+      <c r="DJ1" s="20">
         <v>7</v>
       </c>
-      <c r="DK1" s="35">
+      <c r="DK1" s="21">
         <v>7</v>
       </c>
-      <c r="DL1" s="34">
+      <c r="DL1" s="20">
         <v>1</v>
       </c>
-      <c r="DM1" s="34">
+      <c r="DM1" s="20">
         <v>7</v>
       </c>
-      <c r="DN1" s="34">
+      <c r="DN1" s="20">
         <v>6</v>
       </c>
-      <c r="DO1" s="34">
+      <c r="DO1" s="20">
         <v>6</v>
       </c>
-      <c r="DP1" s="34">
+      <c r="DP1" s="20">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="20">
         <f>COUNTA(B1:DP1)</f>
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:120" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="7">
         <v>3</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="7">
         <v>4</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="7">
         <v>5</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="7">
         <v>6</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="8">
         <v>7</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:120" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="10">
         <f>COUNTIF(B1:DP1,B5)</f>
         <v>16</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="10">
         <f>COUNTIF(B1:DP1,C5)</f>
         <v>7</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="10">
         <f>COUNTIF(B1:DP1,D5)</f>
         <v>22</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="10">
         <f>COUNTIF(B1:DP1,E5)</f>
         <v>12</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="10">
         <f>COUNTIF(B1:DP1,F5)</f>
         <v>13</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="10">
         <f>COUNTIF(B1:DP1,G5)</f>
         <v>18</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="11">
         <f>COUNTIF(B1:DP1,H5)</f>
         <v>21</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="12">
         <f>COUNTIF(B1:DP1,I5)</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:120" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:120" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:120" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="13">
         <v>1</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="13">
         <v>3</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="13">
         <v>4</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="13">
         <v>5</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="13">
         <v>6</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="14">
         <v>7</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:120" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="17">
         <f>B6/B2</f>
         <v>0.13445378151260504</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="17">
         <f>C6/B2</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="17">
         <f>D6/B2</f>
         <v>0.18487394957983194</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="17">
         <f>E6/B2</f>
         <v>0.10084033613445378</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="17">
         <f>F6/B2</f>
         <v>0.1092436974789916</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="17">
         <f>G6/B2</f>
         <v>0.15126050420168066</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="18">
         <f>H6/B2</f>
         <v>0.17647058823529413</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="19">
         <f>I6/B2</f>
         <v>8.4033613445378158E-2</v>
       </c>
     </row>
     <row r="13" spans="1:120" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
     </row>
     <row r="32" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
     </row>
     <row r="34" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E34" s="2">
@@ -9430,11 +9430,11 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="5:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="5:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="5">
         <v>1</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="5:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E38" s="6">
         <f>B10</f>
         <v>0.13445378151260504</v>
@@ -9452,11 +9452,11 @@
         <v>0.13445378151260504</v>
       </c>
     </row>
-    <row r="39" spans="5:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="5:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E40" s="5">
         <v>2</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="5:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E41" s="6">
         <f>E38+C10</f>
         <v>0.19327731092436973</v>
@@ -9474,11 +9474,11 @@
         <v>0.19327731092436973</v>
       </c>
     </row>
-    <row r="42" spans="5:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="5:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E43" s="5">
         <v>3</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="5:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E44" s="6">
         <f>E41+D10</f>
         <v>0.37815126050420167</v>
@@ -9496,11 +9496,11 @@
         <v>0.37815126050420167</v>
       </c>
     </row>
-    <row r="45" spans="5:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="5:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E46" s="5">
         <v>4</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="5:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E47" s="6">
         <f>E44+E10</f>
         <v>0.47899159663865543</v>
@@ -9518,11 +9518,11 @@
         <v>0.47899159663865543</v>
       </c>
     </row>
-    <row r="48" spans="5:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E49" s="2">
         <v>5</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E50" s="6">
         <f>E47+F10</f>
         <v>0.58823529411764697</v>
@@ -9540,11 +9540,11 @@
         <v>0.58823529411764697</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E52" s="2">
         <v>6</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E53" s="6">
         <f>E50+G10</f>
         <v>0.73949579831932766</v>
@@ -9562,11 +9562,11 @@
         <v>0.73949579831932766</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E55" s="2">
         <v>7</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E56" s="6">
         <f>E53+H10</f>
         <v>0.91596638655462181</v>
@@ -9584,11 +9584,11 @@
         <v>0.91596638655462181</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E58" s="2">
         <v>8</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E59" s="6">
         <f>E56+I10</f>
         <v>1</v>
@@ -9607,10 +9607,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="8"/>
+      <c r="B64" s="35"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
@@ -9793,12 +9793,12 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
     </row>
@@ -10015,11 +10015,11 @@
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
       <c r="I97" s="4">
         <v>6</v>
       </c>
@@ -10031,11 +10031,11 @@
       <c r="B98" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C98" s="12">
+      <c r="C98" s="25">
         <f>SUMPRODUCT(POWER(C86:C93-E86:E93,2), 1/E86:E93)</f>
         <v>44.483813976829872</v>
       </c>
-      <c r="D98" s="14"/>
+      <c r="D98" s="27"/>
       <c r="I98" s="4">
         <f>I95+D91</f>
         <v>0.8114484794590815</v>
@@ -10049,11 +10049,11 @@
       <c r="B99" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C99" s="25">
         <f>CHIINV(0.05, COUNTA(B5:I5) -C100 - 1)</f>
         <v>12.591587243743978</v>
       </c>
-      <c r="D99" s="14"/>
+      <c r="D99" s="27"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
@@ -10061,10 +10061,10 @@
       <c r="B100" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="24">
         <v>1</v>
       </c>
-      <c r="D100" s="11"/>
+      <c r="D100" s="24"/>
       <c r="I100" s="4">
         <v>7</v>
       </c>
@@ -10073,11 +10073,11 @@
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="27"/>
       <c r="I101" s="4">
         <f>I98+D92</f>
         <v>0.89707076742577063</v>
@@ -10092,11 +10092,11 @@
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
       <c r="I103" s="4">
         <v>8</v>
       </c>
@@ -10108,11 +10108,11 @@
       <c r="B104" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="22">
         <f>ABS(C98-6)/SQRT(2*6)</f>
         <v>11.109320179483104</v>
       </c>
-      <c r="D104" s="10"/>
+      <c r="D104" s="23"/>
       <c r="I104" s="4">
         <f>I101+D93</f>
         <v>0.94599778912102161</v>
@@ -10131,6 +10131,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A13:S13"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="C104:D104"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="B103:D103"/>
@@ -10139,11 +10144,6 @@
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A13:S13"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
